--- a/similarity/main_target.xlsx
+++ b/similarity/main_target.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>file_name</t>
   </si>
@@ -59,33 +59,6 @@
   </si>
   <si>
     <t>本当は、役に立つか立たないかは、扱う問題によって違ってくるんですよ。オセロとか、ああいう簡単なものはコンピューターにルールを教えたら、後は計算能力で解決できるんです。でも、人間みたいに直感によって判断</t>
-  </si>
-  <si>
-    <t>0.9999752215523925</t>
-  </si>
-  <si>
-    <t>0.9999752215523924</t>
-  </si>
-  <si>
-    <t>0.9999596090010725</t>
-  </si>
-  <si>
-    <t>0.9999375534351871</t>
-  </si>
-  <si>
-    <t>0.9999375534351872</t>
-  </si>
-  <si>
-    <t>0.999854947431019</t>
-  </si>
-  <si>
-    <t>0.9998381687502803</t>
-  </si>
-  <si>
-    <t>0.7551960122431098</t>
-  </si>
-  <si>
-    <t>0.7551960122431101</t>
   </si>
 </sst>
 </file>
@@ -473,11 +446,11 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
+      <c r="D2">
+        <v>0.999969635353234</v>
+      </c>
+      <c r="E2">
+        <v>0.9998355700661501</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -490,11 +463,11 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
+      <c r="D3">
+        <v>0.9999696353532341</v>
+      </c>
+      <c r="E3">
+        <v>0.9998355700661503</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -507,11 +480,11 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
+      <c r="D4">
+        <v>0.9999606488314609</v>
+      </c>
+      <c r="E4">
+        <v>0.9998434524518468</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -524,11 +497,11 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
+      <c r="D5">
+        <v>0.9999349141902624</v>
+      </c>
+      <c r="E5">
+        <v>0.6955455160608175</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -541,11 +514,11 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
+      <c r="D6">
+        <v>0.9999349141902625</v>
+      </c>
+      <c r="E6">
+        <v>0.6955455160608175</v>
       </c>
     </row>
   </sheetData>

--- a/similarity/main_target.xlsx
+++ b/similarity/main_target.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>file_name</t>
   </si>
@@ -22,6 +22,9 @@
     <t>text</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -31,19 +34,55 @@
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>1.txt</t>
   </si>
   <si>
+    <t>10.txt</t>
+  </si>
+  <si>
+    <t>11.txt</t>
+  </si>
+  <si>
+    <t>12.txt</t>
+  </si>
+  <si>
+    <t>13.txt</t>
+  </si>
+  <si>
+    <t>3.txt</t>
+  </si>
+  <si>
+    <t>9.txt</t>
+  </si>
+  <si>
     <t>2.txt</t>
   </si>
   <si>
-    <t>3.txt</t>
+    <t>5.txt</t>
+  </si>
+  <si>
+    <t>4.txt</t>
+  </si>
+  <si>
+    <t>6.txt</t>
   </si>
   <si>
     <t>日本の企業に対して、ぼくらが果たす役割として、日本の企業に世界最高レベルのAIを提供したいと思っています。それをできるところは、我々しかないと思っています。国内でもAIをやっている企業はありますが、我</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; import numpy as np
+&gt;&gt;&gt; a = np.array([[1,2,3], [4,5,6]])
+&gt;&gt;&gt; b = np.array([[7, 8, 9], [10, 11, 12</t>
+  </si>
+  <si>
+    <t>numpyの配列の扱いで悩んだことがあったのでメモ。
+やりたかったことは、空の配列を作って、そこに縦ベクトルをループで水平方向に追加していく、ということ。ちなみに私が学部の頃使っていたMatlabで</t>
+  </si>
+  <si>
+    <t>ディープラーニングを用いて株価予測を行うことは並大抵の努力では出来ない。演算時間が長く、辛抱強く待たなければいけない。</t>
+  </si>
+  <si>
+    <t>ディープラーニングを実装したライブラリを使いこなせるように準備している最中です。ディープラーニングには多くのベクトル演算が必要で、演算に多くの時間がかかります。この問題を解決するために、GPUを用いる</t>
   </si>
   <si>
     <t>ディープラーニングをやる前から、我々のグループは画像認識において世界トップレベルの技術と画像認識のノウハウの蓄積がありました。
@@ -59,6 +98,13 @@
   </si>
   <si>
     <t>本当は、役に立つか立たないかは、扱う問題によって違ってくるんですよ。オセロとか、ああいう簡単なものはコンピューターにルールを教えたら、後は計算能力で解決できるんです。でも、人間みたいに直感によって判断</t>
+  </si>
+  <si>
+    <t>まず、ディープラーニングのことをお話する前に、AI（artificial intelligence、人工知能）とはどういうものかの説明が必要ですね。
+人間の知能というのは、知識や常識、記憶、推論能力、</t>
+  </si>
+  <si>
+    <t>今までは、ルールベースや統計処理の中でしかAIを活用できなかったから、100%の精度を要求するなら、最後の最後は人間が見て、チェックする必要がありました。しかしディープラーニングを使ったら、今まで人手</t>
   </si>
 </sst>
 </file>
@@ -416,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,90 +481,228 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>0.999969635353234</v>
+        <v>0.6209694657673318</v>
       </c>
       <c r="E2">
-        <v>0.9998355700661501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.4530174751888683</v>
+      </c>
+      <c r="F2">
+        <v>0.8224168182882194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>0.9999696353532341</v>
+        <v>0.3601598762005151</v>
       </c>
       <c r="E3">
-        <v>0.9998355700661503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.4385175355708617</v>
+      </c>
+      <c r="F3">
+        <v>0.7203871372027716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>0.9999606488314609</v>
+        <v>0.5349680130512454</v>
       </c>
       <c r="E4">
-        <v>0.9998434524518468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.5739634708486649</v>
+      </c>
+      <c r="F4">
+        <v>0.9665208950050137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>0.9999349141902624</v>
+        <v>0.6151088885131544</v>
       </c>
       <c r="E5">
-        <v>0.6955455160608175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.6380436607798599</v>
+      </c>
+      <c r="F5">
+        <v>0.970519545434211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>0.5059477249870317</v>
+      </c>
+      <c r="E6">
+        <v>0.3976162712382523</v>
+      </c>
+      <c r="F6">
+        <v>0.768451581901021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>0.6346252055567</v>
+      </c>
+      <c r="E7">
+        <v>0.3681923929765654</v>
+      </c>
+      <c r="F7">
+        <v>0.8240423899130005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>0.6315558688774165</v>
+      </c>
+      <c r="E8">
+        <v>0.2984018829407684</v>
+      </c>
+      <c r="F8">
+        <v>0.6041175989224051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
-        <v>0.9999349141902625</v>
-      </c>
-      <c r="E6">
-        <v>0.6955455160608175</v>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>0.4710078362025973</v>
+      </c>
+      <c r="E9">
+        <v>0.1554245140606779</v>
+      </c>
+      <c r="F9">
+        <v>0.9466226792209917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>0.4538644350504474</v>
+      </c>
+      <c r="E10">
+        <v>0.4645082635171655</v>
+      </c>
+      <c r="F10">
+        <v>0.9836814346986366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>0.6131074421870133</v>
+      </c>
+      <c r="E11">
+        <v>0.2618022657824424</v>
+      </c>
+      <c r="F11">
+        <v>0.9875777660540735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>0.8350544240731266</v>
+      </c>
+      <c r="E12">
+        <v>0.452886348841366</v>
+      </c>
+      <c r="F12">
+        <v>0.9973800126196606</v>
       </c>
     </row>
   </sheetData>

--- a/similarity/main_target.xlsx
+++ b/similarity/main_target.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>file_name</t>
   </si>
@@ -22,6 +22,9 @@
     <t>text</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -31,9 +34,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>1.txt</t>
   </si>
   <si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>6.txt</t>
+  </si>
+  <si>
+    <t>7.txt</t>
+  </si>
+  <si>
+    <t>8.txt</t>
   </si>
   <si>
     <t>日本の企業に対して、ぼくらが果たす役割として、日本の企業に世界最高レベルのAIを提供したいと思っています。それをできるところは、我々しかないと思っています。国内でもAIをやっている企業はありますが、我</t>
@@ -105,6 +111,12 @@
   </si>
   <si>
     <t>今までは、ルールベースや統計処理の中でしかAIを活用できなかったから、100%の精度を要求するなら、最後の最後は人間が見て、チェックする必要がありました。しかしディープラーニングを使ったら、今まで人手</t>
+  </si>
+  <si>
+    <t>doc2vecは単語を分散表現されたベクトルに変換するためのプログラムです。単語ベクトルの次元を圧縮することで様々な応用が考えられます。</t>
+  </si>
+  <si>
+    <t>word2vecはある単語とその周辺語から単語の値を決めるdoc2vecに似たプログラムです。word2vecを行うことで単語の足し算や引き算などの演算を行うことが可能になります。</t>
   </si>
 </sst>
 </file>
@@ -462,13 +474,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,225 +496,307 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>0.6209694657673318</v>
+        <v>0.555913958596102</v>
       </c>
       <c r="E2">
-        <v>0.4530174751888683</v>
+        <v>0.6740049737252041</v>
       </c>
       <c r="F2">
-        <v>0.8224168182882194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.4258255350467007</v>
+      </c>
+      <c r="G2">
+        <v>0.8540002983750897</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>0.3601598762005151</v>
+        <v>0.2054707474778352</v>
       </c>
       <c r="E3">
-        <v>0.4385175355708617</v>
+        <v>0.3660721084692831</v>
       </c>
       <c r="F3">
-        <v>0.7203871372027716</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.4721785462170035</v>
+      </c>
+      <c r="G3">
+        <v>0.6966522804119899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>0.5349680130512454</v>
+        <v>0.3766738649837558</v>
       </c>
       <c r="E4">
-        <v>0.5739634708486649</v>
+        <v>0.5645012758812779</v>
       </c>
       <c r="F4">
-        <v>0.9665208950050137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.5907937941631671</v>
+      </c>
+      <c r="G4">
+        <v>0.9725214334543213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>0.6151088885131544</v>
+        <v>0.4201590571860911</v>
       </c>
       <c r="E5">
-        <v>0.6380436607798599</v>
+        <v>0.6198297154958015</v>
       </c>
       <c r="F5">
-        <v>0.970519545434211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.643458396461864</v>
+      </c>
+      <c r="G5">
+        <v>0.980704126384615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>0.5059477249870317</v>
+        <v>0.1582678058027041</v>
       </c>
       <c r="E6">
-        <v>0.3976162712382523</v>
+        <v>0.5027341805217216</v>
       </c>
       <c r="F6">
-        <v>0.768451581901021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.368181145759133</v>
+      </c>
+      <c r="G6">
+        <v>0.8056000459161545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>0.6346252055567</v>
+        <v>0.5196852160856803</v>
       </c>
       <c r="E7">
-        <v>0.3681923929765654</v>
+        <v>0.6153908668428618</v>
       </c>
       <c r="F7">
-        <v>0.8240423899130005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.3755509906457795</v>
+      </c>
+      <c r="G7">
+        <v>0.8374454595141427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>0.6315558688774165</v>
+        <v>0.472206386158335</v>
       </c>
       <c r="E8">
-        <v>0.2984018829407684</v>
+        <v>0.6417932610358361</v>
       </c>
       <c r="F8">
-        <v>0.6041175989224051</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.3311114277600351</v>
+      </c>
+      <c r="G8">
+        <v>0.6225446205535141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>0.4710078362025973</v>
+        <v>0.8826621980171564</v>
       </c>
       <c r="E9">
-        <v>0.1554245140606779</v>
+        <v>0.4788931441195171</v>
       </c>
       <c r="F9">
-        <v>0.9466226792209917</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.1840128830817815</v>
+      </c>
+      <c r="G9">
+        <v>0.9588482372359552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>0.4538644350504474</v>
+        <v>0.881770793101766</v>
       </c>
       <c r="E10">
-        <v>0.4645082635171655</v>
+        <v>0.4696967775886774</v>
       </c>
       <c r="F10">
-        <v>0.9836814346986366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.4376602933697419</v>
+      </c>
+      <c r="G10">
+        <v>0.9785472640724238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>0.6131074421870133</v>
+        <v>0.7336708960320266</v>
       </c>
       <c r="E11">
-        <v>0.2618022657824424</v>
+        <v>0.5642088749013794</v>
       </c>
       <c r="F11">
-        <v>0.9875777660540735</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.2643562806121573</v>
+      </c>
+      <c r="G11">
+        <v>0.9905776193656711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>0.8350544240731266</v>
+        <v>0.937535173258345</v>
       </c>
       <c r="E12">
-        <v>0.452886348841366</v>
+        <v>0.8198982709173925</v>
       </c>
       <c r="F12">
-        <v>0.9973800126196606</v>
+        <v>0.4382952073902426</v>
+      </c>
+      <c r="G12">
+        <v>0.9962201880352548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>0.9881910677126515</v>
+      </c>
+      <c r="E13">
+        <v>0.9762485109156345</v>
+      </c>
+      <c r="F13">
+        <v>0.7600024959232783</v>
+      </c>
+      <c r="G13">
+        <v>0.9996400034995652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>0.9824212434926103</v>
+      </c>
+      <c r="E14">
+        <v>0.9697618621597506</v>
+      </c>
+      <c r="F14">
+        <v>0.711752684861497</v>
+      </c>
+      <c r="G14">
+        <v>0.999696820098769</v>
       </c>
     </row>
   </sheetData>
